--- a/FakeProject/design/excel/pack_const.xlsx
+++ b/FakeProject/design/excel/pack_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24465" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>字段名字</t>
   </si>
@@ -37,6 +37,27 @@
   </si>
   <si>
     <t>0:正常状态 1:提审状态 2:洗钱状态</t>
+  </si>
+  <si>
+    <t>topics</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">["小游戏","学生党","游戏名字"] </t>
+  </si>
+  <si>
+    <t>头条话题 第三个为当前游戏名称</t>
+  </si>
+  <si>
+    <t>share_id</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>头条分享id，在头条后台-设置-分享设置中</t>
   </si>
 </sst>
 </file>
@@ -49,7 +70,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,28 +81,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,39 +102,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,63 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,25 +238,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,151 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,10 +428,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -426,23 +438,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,9 +476,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,21 +490,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,162 +508,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,15 +1031,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1052,6 +1070,31 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/FakeProject/design/excel/pack_const.xlsx
+++ b/FakeProject/design/excel/pack_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24465" windowHeight="12855"/>
+    <workbookView windowWidth="17145" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>string[]</t>
   </si>
   <si>
-    <t xml:space="preserve">["小游戏","学生党","游戏名字"] </t>
+    <t>["小游戏","学生党","游戏名字"]</t>
   </si>
   <si>
     <t>头条话题 第三个为当前游戏名称</t>
@@ -79,8 +79,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,135 +222,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,9 +428,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,23 +455,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +478,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +489,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/FakeProject/design/excel/pack_const.xlsx
+++ b/FakeProject/design/excel/pack_const.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17145" windowHeight="12255"/>
+    <workbookView windowWidth="16425" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>字段名字</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>头条分享id，在头条后台-设置-分享设置中</t>
+  </si>
+  <si>
+    <t>defaultBgm</t>
+  </si>
+  <si>
+    <t>https://v.douyin.com/eedFxCr/</t>
+  </si>
+  <si>
+    <t>抖音分享默认音乐</t>
   </si>
 </sst>
 </file>
@@ -65,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -79,6 +88,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +125,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +144,22 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,45 +179,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,48 +226,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,13 +241,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,61 +319,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,91 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,41 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,9 +452,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +466,39 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,16 +519,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,137 +552,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,6 +691,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1031,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
@@ -1097,7 +1109,24 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://v.douyin.com/eedFxCr/" tooltip="https://v.douyin.com/eedFxCr/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
